--- a/数据库.xlsx
+++ b/数据库.xlsx
@@ -11,8 +11,24 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Select  version();
+set profiling=1;
+show profiles;
+show profile for query 2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql 常用调优命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,9 +72,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,12 +373,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="70.125" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="170.25" customHeight="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/数据库.xlsx
+++ b/数据库.xlsx
@@ -18,14 +18,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Select  version();
+    <t>mysql 常用调优命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain
+Select  version();
 set profiling=1;
 show profiles;
 show profile for query 2;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql 常用调优命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +377,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -387,10 +388,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="170.25" customHeight="1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
